--- a/DATA_goal/Junction_Flooding_57.xlsx
+++ b/DATA_goal/Junction_Flooding_57.xlsx
@@ -443,34 +443,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41489.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>36.01</v>
+        <v>3.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>28.14</v>
+        <v>2.81</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.94</v>
+        <v>4.09</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.16</v>
+        <v>1.42</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.68</v>
+        <v>1.47</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.25</v>
+        <v>0.42</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.36</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>194.07</v>
+        <v>19.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.74</v>
+        <v>3.67</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.94</v>
+        <v>2.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.13</v>
+        <v>1.21</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.93</v>
+        <v>2.09</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.93</v>
+        <v>1.49</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.63</v>
+        <v>3.66</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41489.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.05</v>
+        <v>1.1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>23.88</v>
+        <v>2.39</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.77</v>
+        <v>1.88</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>34.42</v>
+        <v>3.44</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.92</v>
+        <v>0.99</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>124.3</v>
+        <v>12.43</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>24.26</v>
+        <v>2.43</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.67</v>
+        <v>1.67</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.58</v>
+        <v>0.76</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>31.65</v>
+        <v>3.16</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41489.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.12</v>
+        <v>0.61</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.33</v>
+        <v>2.53</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X4" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>85.38</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>5.81</v>
-      </c>
       <c r="Y4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>23.22</v>
+        <v>2.32</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.03</v>
+        <v>0.3</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41489.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.71</v>
+        <v>0.37</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.37</v>
+        <v>1.64</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>48.76</v>
+        <v>4.88</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.65</v>
+        <v>0.77</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>15.09</v>
+        <v>1.51</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.25</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41489.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>18.93</v>
+        <v>1.89</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>41.15</v>
+        <v>4.12</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>33.57</v>
+        <v>3.36</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>53.63</v>
+        <v>5.36</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>22.92</v>
+        <v>2.29</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>17.42</v>
+        <v>1.74</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>21.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>218.13</v>
+        <v>21.81</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>41.31</v>
+        <v>4.13</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>27.75</v>
+        <v>2.78</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>26.65</v>
+        <v>2.67</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>17.35</v>
+        <v>1.73</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>48.58</v>
+        <v>4.86</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41489.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>20.66</v>
+        <v>2.07</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>15.3</v>
+        <v>1.53</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>44.92</v>
+        <v>4.49</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>36.75</v>
+        <v>3.68</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>16.26</v>
+        <v>1.63</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>62.89</v>
+        <v>6.29</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>25.01</v>
+        <v>2.5</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>11.14</v>
+        <v>1.11</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>16.48</v>
+        <v>1.65</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>18.03</v>
+        <v>1.8</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>19.03</v>
+        <v>1.9</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>23.03</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>13.59</v>
+        <v>1.36</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>238.76</v>
+        <v>23.88</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>45.22</v>
+        <v>4.52</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>30.43</v>
+        <v>3.04</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>15.95</v>
+        <v>1.6</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>30.68</v>
+        <v>3.07</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>13.18</v>
+        <v>1.32</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>18.94</v>
+        <v>1.89</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>57.24</v>
+        <v>5.72</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.41</v>
+        <v>0.84</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>18.66</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41489.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>12.35</v>
+        <v>1.23</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41489.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>11.24</v>
+        <v>1.12</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="M9" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AB9" s="4" t="n">
         <v>0.64</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>13.61</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>10.36</v>
-      </c>
-      <c r="N9" s="4" t="n">
+      <c r="AC9" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF9" s="4" t="n">
         <v>2.82</v>
       </c>
-      <c r="O9" s="4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>126.54</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>24.42</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>28.17</v>
-      </c>
       <c r="AG9" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41489.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>28.42</v>
+        <v>2.84</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>23.23</v>
+        <v>2.32</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>39.2</v>
+        <v>3.92</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>12.05</v>
+        <v>1.2</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>14.56</v>
+        <v>1.46</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>148.32</v>
+        <v>14.83</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>28.59</v>
+        <v>2.86</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>19.23</v>
+        <v>1.92</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>19.19</v>
+        <v>1.92</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>35.63</v>
+        <v>3.56</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_57.xlsx
+++ b/DATA_goal/Junction_Flooding_57.xlsx
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>40751.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.98</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>95.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.49</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.11</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.88</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.87</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.37</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.45</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.29</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.22</v>
+        <v>22.18</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.88</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.08</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.53</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.99</v>
       </c>
       <c r="Q4" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.46</v>
       </c>
-      <c r="R4" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.83</v>
+        <v>78.27</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.54</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.44</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.69</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.18</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.87</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>21.01</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>72.61</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.75</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.92</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_57.xlsx
+++ b/DATA_goal/Junction_Flooding_57.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,37 +444,37 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>8.859</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.98</v>
+        <v>6.978</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.676</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.46</v>
+        <v>18.456</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.02</v>
+        <v>16.023</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.56</v>
+        <v>6.562</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.65</v>
+        <v>22.654</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.9</v>
+        <v>9.898999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>4.59</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.37</v>
+        <v>7.366</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>7.82</v>
+        <v>7.816</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.74</v>
+        <v>7.738</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.08</v>
+        <v>2.076</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.57</v>
+        <v>6.571</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.49</v>
+        <v>9.493</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.47</v>
+        <v>5.467</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>95.28</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>18.49</v>
+        <v>18.485</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.96</v>
+        <v>5.964</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.3</v>
+        <v>12.301</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.11</v>
+        <v>7.115</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>0.91</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.88</v>
+        <v>12.882</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.9</v>
+        <v>4.897</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.88</v>
+        <v>5.876</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.31</v>
+        <v>5.307</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.07</v>
+        <v>8.071</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>19.87</v>
+        <v>19.874</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.83</v>
+        <v>3.828</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.5</v>
+        <v>7.498</v>
       </c>
     </row>
     <row r="4">
@@ -863,55 +863,55 @@
         <v>40751.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.37</v>
+        <v>7.375</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>5.7</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.485</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>15.45</v>
+        <v>15.445</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.29</v>
+        <v>13.291</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.49</v>
+        <v>5.492</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22.18</v>
+        <v>22.182</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>8.369999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.88</v>
+        <v>3.884</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.08</v>
+        <v>6.081</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>6.42</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.53</v>
+        <v>6.534</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.77</v>
+        <v>1.767</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.49</v>
+        <v>5.494</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.99</v>
+        <v>7.995</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.61</v>
+        <v>4.612</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.463</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.06</v>
@@ -920,46 +920,46 @@
         <v>78.27</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>15.54</v>
+        <v>15.537</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.01</v>
+        <v>5.006</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.44</v>
+        <v>10.443</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>5.86</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.69</v>
+        <v>11.688</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.18</v>
+        <v>4.175</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.71</v>
+        <v>4.713</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.5</v>
+        <v>4.502</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.72</v>
+        <v>6.724</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>19.87</v>
+        <v>19.866</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>3.16</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.3</v>
+        <v>6.296</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>5.91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.81</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>135.58</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.72</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_57.xlsx
+++ b/DATA_goal/Junction_Flooding_57.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
@@ -967,88 +967,88 @@
         <v>40751.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.86</v>
+        <v>6.862</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.25</v>
+        <v>5.255</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.404</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>14.46</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.35</v>
+        <v>12.349</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.15</v>
+        <v>5.152</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.01</v>
+        <v>21.013</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>7.89</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.64</v>
+        <v>3.639</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.63</v>
+        <v>5.634</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.95</v>
+        <v>5.948</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.14</v>
+        <v>6.139</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.66</v>
+        <v>1.665</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.15</v>
+        <v>5.147</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.49</v>
+        <v>7.486</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.33</v>
+        <v>4.327</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.073</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.61</v>
+        <v>72.605</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.52</v>
+        <v>14.515</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.7</v>
+        <v>4.705</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>9.794</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.42</v>
+        <v>5.416</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>10.75</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.97</v>
+        <v>3.971</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>4.27</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.25</v>
+        <v>4.252</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>6.26</v>
@@ -1057,13 +1057,117 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.8</v>
+        <v>18.796</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>2.92</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.91</v>
+        <v>5.914</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.20137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>34.91</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>135.58</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>26.03</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>10.72</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_57.xlsx
+++ b/DATA_goal/Junction_Flooding_57.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
@@ -967,88 +967,88 @@
         <v>40751.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.862</v>
+        <v>6.86</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.255</v>
+        <v>5.25</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.404</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>14.46</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.349</v>
+        <v>12.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.152</v>
+        <v>5.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.013</v>
+        <v>21.01</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>7.89</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.639</v>
+        <v>3.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.634</v>
+        <v>5.63</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.948</v>
+        <v>5.95</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.139</v>
+        <v>6.14</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.665</v>
+        <v>1.66</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.147</v>
+        <v>5.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.486</v>
+        <v>7.49</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.327</v>
+        <v>4.33</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.073</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.605</v>
+        <v>72.61</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.515</v>
+        <v>14.52</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.705</v>
+        <v>4.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.794</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.416</v>
+        <v>5.42</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.695</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>10.75</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.971</v>
+        <v>3.97</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>4.27</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.252</v>
+        <v>4.25</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>6.26</v>
@@ -1057,117 +1057,13 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.796</v>
+        <v>18.8</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>2.92</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.914</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.81</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>34.91</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>135.58</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.65</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>10.72</v>
+        <v>5.91</v>
       </c>
     </row>
   </sheetData>
